--- a/sputnik/personal/ee/88ee.xlsx
+++ b/sputnik/personal/ee/88ee.xlsx
@@ -16,20 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,10 +36,19 @@
     <t>баня</t>
   </si>
   <si>
-    <t>доплатить - 3,29</t>
-  </si>
-  <si>
-    <t>оплачено 309,64</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -53,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,21 +77,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -157,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -170,7 +158,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -187,25 +175,17 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -513,310 +493,269 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43253</v>
+        <v>43366</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>2297</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="3">
+        <v>2498</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>43309</v>
+        <v>43598</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>2394</v>
+        <v>2545</v>
       </c>
       <c r="D3" s="3">
         <f>C3-C2</f>
-        <v>97</v>
-      </c>
-      <c r="E3" s="8">
-        <v>4.5</v>
+        <v>47</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.57</v>
       </c>
       <c r="F3" s="6">
         <f>D3*E3</f>
-        <v>436.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>214.79000000000002</v>
+      </c>
+      <c r="G3" s="17">
+        <v>214.79</v>
+      </c>
+      <c r="H3" s="17">
+        <v>211.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43366</v>
+        <v>43646</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>2498</v>
+        <v>2590</v>
       </c>
       <c r="D4" s="3">
         <f>C4-C3</f>
-        <v>104</v>
-      </c>
-      <c r="E4" s="8">
-        <v>4.5</v>
+        <v>45</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
         <f>D4*E4</f>
-        <v>468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
-        <v>43598</v>
-      </c>
-      <c r="B5" s="17" t="s">
+        <v>205.65</v>
+      </c>
+      <c r="G4" s="17">
+        <v>205.65</v>
+      </c>
+      <c r="H4" s="17">
+        <v>309.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>43780</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>2545</v>
+        <v>2690</v>
       </c>
       <c r="D5" s="3">
         <f>C5-C4</f>
-        <v>47</v>
-      </c>
-      <c r="E5" s="17">
-        <v>4.57</v>
+        <v>100</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.49</v>
       </c>
       <c r="F5" s="6">
         <f>D5*E5</f>
-        <v>214.79000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+        <v>449</v>
+      </c>
+      <c r="G5" s="17">
+        <v>449</v>
+      </c>
+      <c r="H5" s="17">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>43646</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2590</v>
-      </c>
-      <c r="D7" s="3">
-        <f>C7-C5</f>
-        <v>45</v>
-      </c>
-      <c r="E7" s="17">
-        <v>4.57</v>
-      </c>
-      <c r="F7" s="6">
-        <f>D7*E7</f>
-        <v>205.65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43646</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="6">
-        <v>103.99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="17">
+        <f>SUM(G3:G5)</f>
+        <v>869.44</v>
+      </c>
+      <c r="H6" s="17">
+        <f>SUM(H3:H5)</f>
+        <v>970.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17">
+        <f>SUM(H6,-G6)</f>
+        <v>100.69999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43780</v>
+        <v>43253</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3">
-        <v>2690</v>
-      </c>
-      <c r="D9" s="3">
-        <f>C9-C7</f>
-        <v>100</v>
-      </c>
-      <c r="E9" s="17">
-        <v>4.49</v>
-      </c>
-      <c r="F9" s="6">
-        <f>D9*E9</f>
-        <v>449</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43253</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="C9" s="5">
+        <v>252</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>43309</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="5">
-        <v>252</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43309</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="C10" s="3">
+        <v>258</v>
+      </c>
+      <c r="D10" s="3">
+        <f>C10-C9</f>
+        <v>6</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="F10" s="6">
+        <f>D10*E10</f>
+        <v>27</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>43366</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="3">
-        <v>258</v>
-      </c>
-      <c r="D14" s="3">
-        <f>C14-C13</f>
-        <v>6</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="C11" s="3">
+        <v>263</v>
+      </c>
+      <c r="D11" s="3">
+        <f>C11-C10</f>
+        <v>5</v>
+      </c>
+      <c r="E11" s="8">
         <v>4.5</v>
       </c>
-      <c r="F14" s="6">
-        <f>D14*E14</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>43366</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>263</v>
-      </c>
-      <c r="D15" s="3">
-        <f>C15-C14</f>
-        <v>5</v>
-      </c>
-      <c r="E15" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F15" s="6">
-        <f>D15*E15</f>
+      <c r="F11" s="6">
+        <f>D11*E11</f>
         <v>22.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/88ee.xlsx
+++ b/sputnik/personal/ee/88ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -493,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -641,121 +641,149 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6" t="s">
+      <c r="A6" s="4">
+        <v>44014</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2795</v>
+      </c>
+      <c r="D6" s="3">
+        <f>C6-C5</f>
+        <v>105</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="6">
+        <f>D6*E6</f>
+        <v>471.45000000000005</v>
+      </c>
+      <c r="G6" s="17">
+        <v>471.45</v>
+      </c>
+      <c r="H6" s="17">
+        <v>471.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="17">
-        <f>SUM(G3:G5)</f>
-        <v>869.44</v>
-      </c>
-      <c r="H6" s="17">
-        <f>SUM(H3:H5)</f>
-        <v>970.14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="17">
+        <f>SUM(G3:G6)</f>
+        <v>1340.89</v>
+      </c>
       <c r="H7" s="17">
-        <f>SUM(H6,-G6)</f>
-        <v>100.69999999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+        <f>SUM(H3:H6)</f>
+        <v>1441.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17">
+        <f>SUM(H7,-G7)</f>
+        <v>100.69999999999982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>43253</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>252</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43309</v>
+        <v>43253</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
-        <v>258</v>
-      </c>
-      <c r="D10" s="3">
-        <f>C10-C9</f>
-        <v>6</v>
-      </c>
-      <c r="E10" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>27</v>
-      </c>
+      <c r="C10" s="5">
+        <v>252</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43366</v>
+        <v>43309</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="3">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D11" s="3">
         <f>C11-C10</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" s="8">
         <v>4.5</v>
       </c>
       <c r="F11" s="6">
         <f>D11*E11</f>
-        <v>22.5</v>
+        <v>27</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="4">
+        <v>43366</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>263</v>
+      </c>
+      <c r="D12" s="3">
+        <f>C12-C11</f>
+        <v>5</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="F12" s="6">
+        <f>D12*E12</f>
+        <v>22.5</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/88ee.xlsx
+++ b/sputnik/personal/ee/88ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -493,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -592,21 +592,21 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>2590</v>
+        <v>2612</v>
       </c>
       <c r="D4" s="3">
         <f>C4-C3</f>
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E4" s="3">
         <v>4.57</v>
       </c>
       <c r="F4" s="6">
         <f>D4*E4</f>
-        <v>205.65</v>
+        <v>306.19</v>
       </c>
       <c r="G4" s="17">
-        <v>205.65</v>
+        <v>306.19</v>
       </c>
       <c r="H4" s="17">
         <v>309.64</v>
@@ -624,14 +624,14 @@
       </c>
       <c r="D5" s="3">
         <f>C5-C4</f>
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E5" s="3">
         <v>4.49</v>
       </c>
       <c r="F5" s="6">
         <f>D5*E5</f>
-        <v>449</v>
+        <v>350.22</v>
       </c>
       <c r="G5" s="17">
         <v>449</v>
@@ -669,121 +669,149 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6" t="s">
+      <c r="A7" s="4">
+        <v>44053</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2943</v>
+      </c>
+      <c r="D7" s="3">
+        <f>C7-C6</f>
+        <v>148</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F7" s="6">
+        <f>D7*E7</f>
+        <v>697.08</v>
+      </c>
+      <c r="G7" s="17">
+        <v>697.08</v>
+      </c>
+      <c r="H7" s="17">
+        <v>697.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G8" s="17">
         <f>SUM(G3:G6)</f>
-        <v>1340.89</v>
-      </c>
-      <c r="H7" s="17">
+        <v>1441.43</v>
+      </c>
+      <c r="H8" s="17">
         <f>SUM(H3:H6)</f>
         <v>1441.59</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17">
-        <f>SUM(H7,-G7)</f>
-        <v>100.69999999999982</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17">
+        <f>SUM(H8,-G8)</f>
+        <v>0.15999999999985448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43253</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>252</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43309</v>
+        <v>43253</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="3">
-        <v>258</v>
-      </c>
-      <c r="D11" s="3">
-        <f>C11-C10</f>
-        <v>6</v>
-      </c>
-      <c r="E11" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>27</v>
-      </c>
+      <c r="C11" s="5">
+        <v>252</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43366</v>
+        <v>43309</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D12" s="3">
         <f>C12-C11</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" s="8">
         <v>4.5</v>
       </c>
       <c r="F12" s="6">
         <f>D12*E12</f>
-        <v>22.5</v>
+        <v>27</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="4">
+        <v>43366</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>263</v>
+      </c>
+      <c r="D13" s="3">
+        <f>C13-C12</f>
+        <v>5</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="F13" s="6">
+        <f>D13*E13</f>
+        <v>22.5</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/88ee.xlsx
+++ b/sputnik/personal/ee/88ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -493,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -697,121 +697,163 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6" t="s">
+      <c r="A8" s="4">
+        <v>44081</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3057</v>
+      </c>
+      <c r="D8" s="3">
+        <f>C8-C7</f>
+        <v>114</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="6">
+        <f>D8*E8</f>
+        <v>536.93999999999994</v>
+      </c>
+      <c r="G8" s="17">
+        <v>536.94000000000005</v>
+      </c>
+      <c r="H8" s="17">
+        <v>536.94000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="17">
-        <f>SUM(G3:G6)</f>
-        <v>1441.43</v>
-      </c>
-      <c r="H8" s="17">
-        <f>SUM(H3:H6)</f>
-        <v>1441.59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
+      <c r="G9" s="17">
+        <f>SUM(G3:G8)</f>
+        <v>2675.4500000000003</v>
+      </c>
       <c r="H9" s="17">
-        <f>SUM(H8,-G8)</f>
+        <f>SUM(H3:H8)</f>
+        <v>2675.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17">
+        <f>SUM(H9,-G9)</f>
         <v>0.15999999999985448</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43253</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>252</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43309</v>
+        <v>43253</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="3">
-        <v>258</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12-C11</f>
-        <v>6</v>
-      </c>
-      <c r="E12" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>27</v>
-      </c>
+      <c r="C12" s="5">
+        <v>252</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>43366</v>
+        <v>43309</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D13" s="3">
         <f>C13-C12</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" s="8">
         <v>4.5</v>
       </c>
       <c r="F13" s="6">
         <f>D13*E13</f>
-        <v>22.5</v>
+        <v>27</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="4">
+        <v>43366</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>263</v>
+      </c>
+      <c r="D14" s="3">
+        <f>C14-C13</f>
+        <v>5</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="F14" s="6">
+        <f>D14*E14</f>
+        <v>22.5</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44081</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>274</v>
+      </c>
+      <c r="D15" s="3">
+        <f>C15-C14</f>
+        <v>11</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="6">
+        <f>D15*E15</f>
+        <v>51.81</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/88ee.xlsx
+++ b/sputnik/personal/ee/88ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -493,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -567,14 +567,14 @@
         <v>2545</v>
       </c>
       <c r="D3" s="3">
-        <f>C3-C2</f>
+        <f t="shared" ref="D3:D9" si="0">C3-C2</f>
         <v>47</v>
       </c>
       <c r="E3" s="3">
         <v>4.57</v>
       </c>
       <c r="F3" s="6">
-        <f>D3*E3</f>
+        <f t="shared" ref="F3:F8" si="1">D3*E3</f>
         <v>214.79000000000002</v>
       </c>
       <c r="G3" s="17">
@@ -595,14 +595,14 @@
         <v>2612</v>
       </c>
       <c r="D4" s="3">
-        <f>C4-C3</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="E4" s="3">
         <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f>D4*E4</f>
+        <f t="shared" si="1"/>
         <v>306.19</v>
       </c>
       <c r="G4" s="17">
@@ -623,14 +623,14 @@
         <v>2690</v>
       </c>
       <c r="D5" s="3">
-        <f>C5-C4</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="E5" s="3">
         <v>4.49</v>
       </c>
       <c r="F5" s="6">
-        <f>D5*E5</f>
+        <f t="shared" si="1"/>
         <v>350.22</v>
       </c>
       <c r="G5" s="17">
@@ -651,14 +651,14 @@
         <v>2795</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-C5</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="E6" s="3">
         <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f>D6*E6</f>
+        <f t="shared" si="1"/>
         <v>471.45000000000005</v>
       </c>
       <c r="G6" s="17">
@@ -679,14 +679,14 @@
         <v>2943</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-C6</f>
+        <f t="shared" si="0"/>
         <v>148</v>
       </c>
       <c r="E7" s="3">
         <v>4.71</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
+        <f t="shared" si="1"/>
         <v>697.08</v>
       </c>
       <c r="G7" s="17">
@@ -707,14 +707,14 @@
         <v>3057</v>
       </c>
       <c r="D8" s="3">
-        <f>C8-C7</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*E8</f>
+        <f t="shared" si="1"/>
         <v>536.93999999999994</v>
       </c>
       <c r="G8" s="17">
@@ -725,135 +725,163 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6" t="s">
+      <c r="A9" s="4">
+        <v>44160</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3172</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" ref="F9" si="2">D9*E9</f>
+        <v>541.65</v>
+      </c>
+      <c r="G9" s="17">
+        <v>541.65</v>
+      </c>
+      <c r="H9" s="17">
+        <v>541.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="17">
-        <f>SUM(G3:G8)</f>
-        <v>2675.4500000000003</v>
-      </c>
-      <c r="H9" s="17">
-        <f>SUM(H3:H8)</f>
-        <v>2675.61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
+      <c r="G10" s="17">
+        <f>SUM(G3:G9)</f>
+        <v>3217.1000000000004</v>
+      </c>
       <c r="H10" s="17">
-        <f>SUM(H9,-G9)</f>
+        <f>SUM(H3:H9)</f>
+        <v>3217.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17">
+        <f>SUM(H10,-G10)</f>
         <v>0.15999999999985448</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43253</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>252</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>43309</v>
+        <v>43253</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="3">
-        <v>258</v>
-      </c>
-      <c r="D13" s="3">
-        <f>C13-C12</f>
-        <v>6</v>
-      </c>
-      <c r="E13" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F13" s="6">
-        <f>D13*E13</f>
-        <v>27</v>
-      </c>
+      <c r="C13" s="5">
+        <v>252</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43366</v>
+        <v>43309</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D14" s="3">
         <f>C14-C13</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="8">
         <v>4.5</v>
       </c>
       <c r="F14" s="6">
         <f>D14*E14</f>
-        <v>22.5</v>
+        <v>27</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>44081</v>
+        <v>43366</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="3">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D15" s="3">
         <f>C15-C14</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E15" s="8">
-        <v>4.71</v>
+        <v>4.5</v>
       </c>
       <c r="F15" s="6">
         <f>D15*E15</f>
-        <v>51.81</v>
+        <v>22.5</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44081</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>274</v>
+      </c>
+      <c r="D16" s="3">
+        <f>C16-C15</f>
+        <v>11</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="6">
+        <f>D16*E16</f>
+        <v>51.81</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/88ee.xlsx
+++ b/sputnik/personal/ee/88ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -493,7 +493,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -753,135 +753,181 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6" t="s">
+      <c r="A10" s="4">
+        <v>44363</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3292</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10" si="3">C10-C9</f>
+        <v>120</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" ref="F10" si="4">D10*E10</f>
+        <v>565.20000000000005</v>
+      </c>
+      <c r="G10" s="17">
+        <v>565.20000000000005</v>
+      </c>
+      <c r="H10" s="17">
+        <v>565.20000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G11" s="17">
         <f>SUM(G3:G9)</f>
         <v>3217.1000000000004</v>
       </c>
-      <c r="H10" s="17">
-        <f>SUM(H3:H9)</f>
-        <v>3217.26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
       <c r="H11" s="17">
-        <f>SUM(H10,-G10)</f>
-        <v>0.15999999999985448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+        <f>SUM(H10,-G11)</f>
+        <v>-2651.9000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43253</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>252</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43309</v>
+        <v>43253</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="3">
-        <v>258</v>
-      </c>
-      <c r="D14" s="3">
-        <f>C14-C13</f>
-        <v>6</v>
-      </c>
-      <c r="E14" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F14" s="6">
-        <f>D14*E14</f>
-        <v>27</v>
-      </c>
+      <c r="C14" s="5">
+        <v>252</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>43366</v>
+        <v>43309</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="3">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D15" s="3">
         <f>C15-C14</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="8">
         <v>4.5</v>
       </c>
       <c r="F15" s="6">
         <f>D15*E15</f>
-        <v>22.5</v>
+        <v>27</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>44081</v>
+        <v>43366</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D16" s="3">
         <f>C16-C15</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E16" s="8">
-        <v>4.71</v>
+        <v>4.5</v>
       </c>
       <c r="F16" s="6">
         <f>D16*E16</f>
-        <v>51.81</v>
+        <v>22.5</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>44081</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>274</v>
+      </c>
+      <c r="D17" s="3">
+        <f>C17-C16</f>
+        <v>11</v>
+      </c>
+      <c r="E17" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="6">
+        <f>D17*E17</f>
+        <v>51.81</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44363</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>284</v>
+      </c>
+      <c r="D18" s="3">
+        <f>C18-C17</f>
+        <v>10</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="6">
+        <f>D18*E18</f>
+        <v>47.1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/88ee.xlsx
+++ b/sputnik/personal/ee/88ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -493,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -781,151 +781,179 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6" t="s">
+      <c r="A11" s="4">
+        <v>44389</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3352</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11" si="5">C11-C10</f>
+        <v>60</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" ref="F11" si="6">D11*E11</f>
+        <v>297.60000000000002</v>
+      </c>
+      <c r="G11" s="17">
+        <v>297.60000000000002</v>
+      </c>
+      <c r="H11" s="17">
+        <v>297.60000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G12" s="17">
         <f>SUM(G3:G9)</f>
         <v>3217.1000000000004</v>
       </c>
-      <c r="H11" s="17">
-        <f>SUM(H10,-G11)</f>
+      <c r="H12" s="17">
+        <f>SUM(H10,-G12)</f>
         <v>-2651.9000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43253</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>252</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>43309</v>
+        <v>43253</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="3">
-        <v>258</v>
-      </c>
-      <c r="D15" s="3">
-        <f>C15-C14</f>
-        <v>6</v>
-      </c>
-      <c r="E15" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F15" s="6">
-        <f>D15*E15</f>
-        <v>27</v>
-      </c>
+      <c r="C15" s="5">
+        <v>252</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43366</v>
+        <v>43309</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D16" s="3">
         <f>C16-C15</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" s="8">
         <v>4.5</v>
       </c>
       <c r="F16" s="6">
         <f>D16*E16</f>
-        <v>22.5</v>
+        <v>27</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>44081</v>
+        <v>43366</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D17" s="3">
         <f>C17-C16</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E17" s="8">
-        <v>4.71</v>
+        <v>4.5</v>
       </c>
       <c r="F17" s="6">
         <f>D17*E17</f>
-        <v>51.81</v>
+        <v>22.5</v>
       </c>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>44363</v>
+        <v>44081</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D18" s="3">
         <f>C18-C17</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" s="8">
         <v>4.71</v>
       </c>
       <c r="F18" s="6">
         <f>D18*E18</f>
+        <v>51.81</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>44363</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>284</v>
+      </c>
+      <c r="D19" s="3">
+        <f>C19-C18</f>
+        <v>10</v>
+      </c>
+      <c r="E19" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F19" s="6">
+        <f>D19*E19</f>
         <v>47.1</v>
       </c>
     </row>

--- a/sputnik/personal/ee/88ee.xlsx
+++ b/sputnik/personal/ee/88ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -493,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -809,151 +809,179 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6" t="s">
+      <c r="A12" s="4">
+        <v>44498</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3552</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12" si="7">C12-C11</f>
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12" si="8">D12*E12</f>
+        <v>992</v>
+      </c>
+      <c r="G12" s="17">
+        <v>297.60000000000002</v>
+      </c>
+      <c r="H12" s="17">
+        <v>297.60000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="17">
-        <f>SUM(G3:G9)</f>
-        <v>3217.1000000000004</v>
-      </c>
-      <c r="H12" s="17">
-        <f>SUM(H10,-G12)</f>
-        <v>-2651.9000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="G13" s="17">
+        <f>SUM(G3:G12)</f>
+        <v>4377.5</v>
+      </c>
+      <c r="H13" s="17">
+        <f>SUM(H3:H12)</f>
+        <v>4377.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>43253</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>252</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43309</v>
+        <v>43253</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="3">
-        <v>258</v>
-      </c>
-      <c r="D16" s="3">
-        <f>C16-C15</f>
-        <v>6</v>
-      </c>
-      <c r="E16" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F16" s="6">
-        <f>D16*E16</f>
-        <v>27</v>
-      </c>
+      <c r="C16" s="5">
+        <v>252</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>43366</v>
+        <v>43309</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D17" s="3">
         <f>C17-C16</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" s="8">
         <v>4.5</v>
       </c>
       <c r="F17" s="6">
         <f>D17*E17</f>
-        <v>22.5</v>
+        <v>27</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>44081</v>
+        <v>43366</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D18" s="3">
         <f>C18-C17</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E18" s="8">
-        <v>4.71</v>
+        <v>4.5</v>
       </c>
       <c r="F18" s="6">
         <f>D18*E18</f>
-        <v>51.81</v>
+        <v>22.5</v>
       </c>
       <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>44363</v>
+        <v>44081</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="3">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D19" s="3">
         <f>C19-C18</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" s="8">
         <v>4.71</v>
       </c>
       <c r="F19" s="6">
         <f>D19*E19</f>
+        <v>51.81</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>44363</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>284</v>
+      </c>
+      <c r="D20" s="3">
+        <f>C20-C19</f>
+        <v>10</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="6">
+        <f>D20*E20</f>
         <v>47.1</v>
       </c>
     </row>
